--- a/Paper_Sources/论文链接.xlsx
+++ b/Paper_Sources/论文链接.xlsx
@@ -203,12 +203,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,22 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +257,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,14 +279,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,75 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,181 +376,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,32 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +629,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -668,153 +652,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,20 +1172,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.11111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="98.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1202,8 +1195,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1213,8 +1209,11 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1224,19 +1223,25 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1246,8 +1251,11 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1257,19 +1265,25 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1279,8 +1293,11 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1290,8 +1307,11 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1301,8 +1321,11 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1323,8 +1349,11 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1334,8 +1363,11 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1345,8 +1377,11 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1356,8 +1391,11 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1367,8 +1405,11 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1378,8 +1419,11 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1389,8 +1433,11 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1400,8 +1447,11 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1411,8 +1461,11 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1422,8 +1475,11 @@
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1433,8 +1489,11 @@
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1444,8 +1503,11 @@
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1455,8 +1517,11 @@
       <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1466,8 +1531,11 @@
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1477,8 +1545,11 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1488,8 +1559,11 @@
       <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1499,8 +1573,11 @@
       <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1510,8 +1587,11 @@
       <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1520,6 +1600,9 @@
       </c>
       <c r="C30" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
